--- a/数据整理/stocks/其他/835185-贝特瑞.xlsx
+++ b/数据整理/stocks/其他/835185-贝特瑞.xlsx
@@ -1,132 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>009697</t>
-  </si>
-  <si>
-    <t>009698</t>
-  </si>
-  <si>
-    <t>009867</t>
-  </si>
-  <si>
-    <t>009868</t>
-  </si>
-  <si>
-    <t>华夏成长精选6个月定期开放混合A</t>
-  </si>
-  <si>
-    <t>华夏成长精选6个月定期开放混合C</t>
-  </si>
-  <si>
-    <t>工银瑞信创新精选一年定期开放混合A</t>
-  </si>
-  <si>
-    <t>工银瑞信创新精选一年定期开放混合C</t>
-  </si>
-  <si>
-    <t>22.38</t>
-  </si>
-  <si>
-    <t>5.51</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>91.83</t>
-  </si>
-  <si>
-    <t>94.23</t>
-  </si>
-  <si>
-    <t>3.29</t>
-  </si>
-  <si>
-    <t>3.37</t>
-  </si>
-  <si>
-    <t>0.7363</t>
-  </si>
-  <si>
-    <t>0.1813</t>
-  </si>
-  <si>
-    <t>0.1038</t>
-  </si>
-  <si>
-    <t>0.0185</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,141 +446,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7363</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/835185-贝特瑞.xlsx
+++ b/数据整理/stocks/其他/835185-贝特瑞.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9687</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8160</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5691</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/835185-贝特瑞.xlsx
+++ b/数据整理/stocks/其他/835185-贝特瑞.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/835185-贝特瑞.xlsx
+++ b/数据整理/stocks/其他/835185-贝特瑞.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1191,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,17 +1203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1222,14 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.83</v>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0959</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1238,14 +1281,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.73</v>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1254,13 +1319,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.04</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/835185-贝特瑞.xlsx
+++ b/数据整理/stocks/其他/835185-贝特瑞.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.15</v>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.83</v>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.73</v>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1566,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3240</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014279</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014280</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.04</v>
       </c>
     </row>
